--- a/Code/Results/Cases/Case_2_246/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_246/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.00555520808534</v>
+        <v>1.033007874342867</v>
       </c>
       <c r="D2">
-        <v>1.028260820333661</v>
+        <v>1.042261326451732</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.032369987030082</v>
+        <v>1.050770146796068</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052108841261284</v>
+        <v>1.038076159013012</v>
       </c>
       <c r="J2">
-        <v>1.027571023953851</v>
+        <v>1.038134962944198</v>
       </c>
       <c r="K2">
-        <v>1.039339991492951</v>
+        <v>1.045038513414612</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.043396049954043</v>
+        <v>1.05352350201329</v>
       </c>
       <c r="N2">
-        <v>1.029030292671909</v>
+        <v>1.039609233667323</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010230995463891</v>
+        <v>1.033978056411331</v>
       </c>
       <c r="D3">
-        <v>1.031905384469054</v>
+        <v>1.043025207178789</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.03652843586693</v>
+        <v>1.051666640900114</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053562445654061</v>
+        <v>1.038287010373691</v>
       </c>
       <c r="J3">
-        <v>1.030446586348546</v>
+        <v>1.038747573574859</v>
       </c>
       <c r="K3">
-        <v>1.042145678018811</v>
+        <v>1.045613312674327</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.046714325535944</v>
+        <v>1.054232292614091</v>
       </c>
       <c r="N3">
-        <v>1.031909938695036</v>
+        <v>1.040222714275347</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013190365465123</v>
+        <v>1.034605859884538</v>
       </c>
       <c r="D4">
-        <v>1.034212262632265</v>
+        <v>1.043519167376833</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.039162999370076</v>
+        <v>1.052246729558984</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054468001374244</v>
+        <v>1.038421650388943</v>
       </c>
       <c r="J4">
-        <v>1.032262574523432</v>
+        <v>1.039143405689302</v>
       </c>
       <c r="K4">
-        <v>1.043914592113439</v>
+        <v>1.045984264417345</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.048810666308747</v>
+        <v>1.05469029053768</v>
       </c>
       <c r="N4">
-        <v>1.033728505781428</v>
+        <v>1.040619108516795</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014419218563883</v>
+        <v>1.034869795255352</v>
       </c>
       <c r="D5">
-        <v>1.035170159230764</v>
+        <v>1.043726750062387</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.040257555577085</v>
+        <v>1.052490596956829</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054840503713335</v>
+        <v>1.038477822747752</v>
       </c>
       <c r="J5">
-        <v>1.033015653781105</v>
+        <v>1.039309676812489</v>
       </c>
       <c r="K5">
-        <v>1.044647424782173</v>
+        <v>1.046139976583955</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.049680178694744</v>
+        <v>1.054882679358111</v>
       </c>
       <c r="N5">
-        <v>1.034482654498026</v>
+        <v>1.040785615764049</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014624669397547</v>
+        <v>1.034914111546709</v>
       </c>
       <c r="D6">
-        <v>1.035330306544177</v>
+        <v>1.043761599490119</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.040440585797144</v>
+        <v>1.052531543222156</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054902573405213</v>
+        <v>1.038487229083293</v>
       </c>
       <c r="J6">
-        <v>1.033141500935842</v>
+        <v>1.039337586428232</v>
       </c>
       <c r="K6">
-        <v>1.04476984534614</v>
+        <v>1.046166107479666</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.049825492819331</v>
+        <v>1.054914973256422</v>
       </c>
       <c r="N6">
-        <v>1.034608680370158</v>
+        <v>1.040813565014648</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013206844704002</v>
+        <v>1.034609386575934</v>
       </c>
       <c r="D7">
-        <v>1.034225108409116</v>
+        <v>1.043521941415516</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.039177675444731</v>
+        <v>1.05224998813593</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054473010716381</v>
+        <v>1.03842240265831</v>
       </c>
       <c r="J7">
-        <v>1.03227267748748</v>
+        <v>1.039145627950249</v>
       </c>
       <c r="K7">
-        <v>1.043924426350427</v>
+        <v>1.045986345979187</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.048822330618621</v>
+        <v>1.054692861850975</v>
       </c>
       <c r="N7">
-        <v>1.033738623092843</v>
+        <v>1.040621333933608</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.007149472062321</v>
+        <v>1.033335745188295</v>
       </c>
       <c r="D8">
-        <v>1.029503401611752</v>
+        <v>1.042519549435545</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.033787274235218</v>
+        <v>1.051073121094909</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052607464204614</v>
+        <v>1.038147788508788</v>
       </c>
       <c r="J8">
-        <v>1.028552296686742</v>
+        <v>1.038342114728187</v>
       </c>
       <c r="K8">
-        <v>1.040298027348469</v>
+        <v>1.045232972268988</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.044528227669414</v>
+        <v>1.05376317240364</v>
       </c>
       <c r="N8">
-        <v>1.030012958924635</v>
+        <v>1.039816679630606</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9959411811653192</v>
+        <v>1.031091687440191</v>
       </c>
       <c r="D9">
-        <v>1.020770887708834</v>
+        <v>1.040750793573975</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.023836683502331</v>
+        <v>1.048999358995015</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049042722253562</v>
+        <v>1.037650162408478</v>
       </c>
       <c r="J9">
-        <v>1.021638085447613</v>
+        <v>1.036921904101659</v>
       </c>
       <c r="K9">
-        <v>1.033535726475599</v>
+        <v>1.043897951139892</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.036554512807088</v>
+        <v>1.052120106264003</v>
       </c>
       <c r="N9">
-        <v>1.023088928712476</v>
+        <v>1.038394452142088</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9880683367155353</v>
+        <v>1.029595855895641</v>
       </c>
       <c r="D10">
-        <v>1.014644216498383</v>
+        <v>1.039570067261608</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.016867147444375</v>
+        <v>1.047616936166047</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046465953781246</v>
+        <v>1.037309220526369</v>
       </c>
       <c r="J10">
-        <v>1.016763479848409</v>
+        <v>1.035972235484293</v>
       </c>
       <c r="K10">
-        <v>1.02875400497595</v>
+        <v>1.043002958712601</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.030938395212849</v>
+        <v>1.051021535871792</v>
       </c>
       <c r="N10">
-        <v>1.018207400614195</v>
+        <v>1.037443434886357</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9845541766529422</v>
+        <v>1.028948199199532</v>
       </c>
       <c r="D11">
-        <v>1.011912187295831</v>
+        <v>1.039058444237506</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.013761847020601</v>
+        <v>1.047018365406286</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045299318280591</v>
+        <v>1.037159415722592</v>
       </c>
       <c r="J11">
-        <v>1.014583942610427</v>
+        <v>1.035560347963875</v>
       </c>
       <c r="K11">
-        <v>1.026612900148641</v>
+        <v>1.042614246539351</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.028428819315921</v>
+        <v>1.050545096972295</v>
       </c>
       <c r="N11">
-        <v>1.016024768183339</v>
+        <v>1.037030962438416</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9832321237684974</v>
+        <v>1.02870763828059</v>
       </c>
       <c r="D12">
-        <v>1.010884873856942</v>
+        <v>1.038868351492736</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.012594544600088</v>
+        <v>1.04679603470462</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044858022062462</v>
+        <v>1.037103445312742</v>
       </c>
       <c r="J12">
-        <v>1.013763482819593</v>
+        <v>1.035407253819927</v>
       </c>
       <c r="K12">
-        <v>1.025806466366839</v>
+        <v>1.042469685822518</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.027484366435957</v>
+        <v>1.050368014429351</v>
       </c>
       <c r="N12">
-        <v>1.015203143245494</v>
+        <v>1.036877650883223</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9835164818474014</v>
+        <v>1.028759239063825</v>
       </c>
       <c r="D13">
-        <v>1.01110581302459</v>
+        <v>1.03890912942164</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.012845574037997</v>
+        <v>1.046843725146626</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044953046887887</v>
+        <v>1.037115465910658</v>
       </c>
       <c r="J13">
-        <v>1.013939975913981</v>
+        <v>1.035440097584511</v>
       </c>
       <c r="K13">
-        <v>1.025979961801079</v>
+        <v>1.042500702526131</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.027687520853337</v>
+        <v>1.050406004286951</v>
       </c>
       <c r="N13">
-        <v>1.01537988698032</v>
+        <v>1.03691054128972</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9844452424623706</v>
+        <v>1.028928314201463</v>
       </c>
       <c r="D14">
-        <v>1.011827528357212</v>
+        <v>1.039042732190757</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.013665644427093</v>
+        <v>1.046999987370687</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045263004782115</v>
+        <v>1.037154795843336</v>
       </c>
       <c r="J14">
-        <v>1.014516348454025</v>
+        <v>1.035547695206638</v>
       </c>
       <c r="K14">
-        <v>1.026546470360254</v>
+        <v>1.042602300685458</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.028351004789881</v>
+        <v>1.050530461552297</v>
       </c>
       <c r="N14">
-        <v>1.015957078035481</v>
+        <v>1.037018291712813</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9850152354084927</v>
+        <v>1.029032487993983</v>
       </c>
       <c r="D15">
-        <v>1.012270522968199</v>
+        <v>1.039125042250723</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.014169058490731</v>
+        <v>1.047096266393975</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045452916112196</v>
+        <v>1.037178985098143</v>
       </c>
       <c r="J15">
-        <v>1.01487001151518</v>
+        <v>1.035613976316187</v>
       </c>
       <c r="K15">
-        <v>1.026894023433499</v>
+        <v>1.042664875403979</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.028758152537462</v>
+        <v>1.050607128975844</v>
       </c>
       <c r="N15">
-        <v>1.016311243338749</v>
+        <v>1.037084666949139</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9882992658290238</v>
+        <v>1.029638839785271</v>
       </c>
       <c r="D16">
-        <v>1.01482381247464</v>
+        <v>1.039604014483895</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.017071333548951</v>
+        <v>1.04765666200036</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046542281496218</v>
+        <v>1.037319116801025</v>
       </c>
       <c r="J16">
-        <v>1.016906633319599</v>
+        <v>1.035999556937165</v>
       </c>
       <c r="K16">
-        <v>1.028894571745114</v>
+        <v>1.043028731577513</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.031103258803216</v>
+        <v>1.051053139810022</v>
       </c>
       <c r="N16">
-        <v>1.018350757379735</v>
+        <v>1.037470795138826</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9903304558007714</v>
+        <v>1.030019201418757</v>
       </c>
       <c r="D17">
-        <v>1.016403807593064</v>
+        <v>1.039904365256335</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.018867951912297</v>
+        <v>1.048008191419935</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047211777153394</v>
+        <v>1.037406435830224</v>
       </c>
       <c r="J17">
-        <v>1.018165359610532</v>
+        <v>1.036241241246196</v>
       </c>
       <c r="K17">
-        <v>1.030130204517802</v>
+        <v>1.043256655017258</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.032553052195341</v>
+        <v>1.051332710254662</v>
       </c>
       <c r="N17">
-        <v>1.019611271206378</v>
+        <v>1.037712822667297</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9915051345073497</v>
+        <v>1.030241064553656</v>
       </c>
       <c r="D18">
-        <v>1.017317800805336</v>
+        <v>1.040079519906071</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.019907503005007</v>
+        <v>1.048213235164206</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047597395964612</v>
+        <v>1.037457157681087</v>
       </c>
       <c r="J18">
-        <v>1.018892954071041</v>
+        <v>1.036382146472347</v>
       </c>
       <c r="K18">
-        <v>1.030844155129354</v>
+        <v>1.043389485526624</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.033391232412245</v>
+        <v>1.051495706479148</v>
       </c>
       <c r="N18">
-        <v>1.020339898934477</v>
+        <v>1.037853927995032</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9919039871413298</v>
+        <v>1.030316714923165</v>
       </c>
       <c r="D19">
-        <v>1.017628179541677</v>
+        <v>1.040139237168693</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.020260561598187</v>
+        <v>1.048283150189304</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047728062244764</v>
+        <v>1.037474416910293</v>
       </c>
       <c r="J19">
-        <v>1.019139941543587</v>
+        <v>1.036430180445774</v>
       </c>
       <c r="K19">
-        <v>1.031086460375508</v>
+        <v>1.04343475804395</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.033675782466041</v>
+        <v>1.051551271658442</v>
       </c>
       <c r="N19">
-        <v>1.020587237157564</v>
+        <v>1.03790203018221</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9901135775107962</v>
+        <v>1.029978391733591</v>
       </c>
       <c r="D20">
-        <v>1.016235078643785</v>
+        <v>1.039872144060683</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.018676064189235</v>
+        <v>1.04797047536571</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047140454238447</v>
+        <v>1.037397089028136</v>
       </c>
       <c r="J20">
-        <v>1.018030996603466</v>
+        <v>1.036215317540734</v>
       </c>
       <c r="K20">
-        <v>1.029998337071076</v>
+        <v>1.043232212710798</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.032398278890753</v>
+        <v>1.051302722483061</v>
       </c>
       <c r="N20">
-        <v>1.01947671738843</v>
+        <v>1.0376868621472</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9841722155347824</v>
+        <v>1.028878525574359</v>
       </c>
       <c r="D21">
-        <v>1.01161535194951</v>
+        <v>1.039003390964885</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.013424542651791</v>
+        <v>1.046953971890779</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045171952152669</v>
+        <v>1.037143223160212</v>
       </c>
       <c r="J21">
-        <v>1.014346926113503</v>
+        <v>1.035516013165993</v>
       </c>
       <c r="K21">
-        <v>1.026379959442423</v>
+        <v>1.042572387404189</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.02815596948545</v>
+        <v>1.050493815072416</v>
       </c>
       <c r="N21">
-        <v>1.015787415095804</v>
+        <v>1.036986564680036</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9803392898864965</v>
+        <v>1.028187040304994</v>
       </c>
       <c r="D22">
-        <v>1.008637987111532</v>
+        <v>1.038456864267983</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.010042143331505</v>
+        <v>1.046314885984294</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043888074567811</v>
+        <v>1.036981720354385</v>
       </c>
       <c r="J22">
-        <v>1.011967340016605</v>
+        <v>1.035075749961055</v>
       </c>
       <c r="K22">
-        <v>1.024040244253217</v>
+        <v>1.042156512820443</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.02541725426482</v>
+        <v>1.049984575750267</v>
       </c>
       <c r="N22">
-        <v>1.013404449713705</v>
+        <v>1.036545676250847</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9823807567710416</v>
+        <v>1.028553605413886</v>
       </c>
       <c r="D23">
-        <v>1.010223462750518</v>
+        <v>1.038746617184703</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.011843107178404</v>
+        <v>1.046653674321</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044573172273443</v>
+        <v>1.037067514774884</v>
       </c>
       <c r="J23">
-        <v>1.013234993757148</v>
+        <v>1.035309196860977</v>
       </c>
       <c r="K23">
-        <v>1.02528689067484</v>
+        <v>1.042377071882177</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.026876080594909</v>
+        <v>1.050254594205688</v>
       </c>
       <c r="N23">
-        <v>1.014673903667962</v>
+        <v>1.036779454672144</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9902116065562332</v>
+        <v>1.029996831859305</v>
       </c>
       <c r="D24">
-        <v>1.016311343406578</v>
+        <v>1.039886703539855</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.018762795854497</v>
+        <v>1.047987517619203</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04717269707202</v>
+        <v>1.037401313094115</v>
       </c>
       <c r="J24">
-        <v>1.018091729816592</v>
+        <v>1.036227031548631</v>
       </c>
       <c r="K24">
-        <v>1.030057943186373</v>
+        <v>1.043243257487308</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.032468237293805</v>
+        <v>1.051316272890227</v>
       </c>
       <c r="N24">
-        <v>1.019537536849685</v>
+        <v>1.037698592790332</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9989062018681659</v>
+        <v>1.031671795967636</v>
       </c>
       <c r="D25">
-        <v>1.023080054395164</v>
+        <v>1.041208338423153</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.026465867074817</v>
+        <v>1.049535466015949</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049998524798964</v>
+        <v>1.037780433156993</v>
       </c>
       <c r="J25">
-        <v>1.023470432837268</v>
+        <v>1.037289569968427</v>
       </c>
       <c r="K25">
-        <v>1.035330344041959</v>
+        <v>1.044243967279892</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.038666771231521</v>
+        <v>1.052545445210213</v>
       </c>
       <c r="N25">
-        <v>1.024923878245597</v>
+        <v>1.038762640136559</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_246/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_246/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033007874342867</v>
+        <v>1.005555208085339</v>
       </c>
       <c r="D2">
-        <v>1.042261326451732</v>
+        <v>1.028260820333661</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.050770146796068</v>
+        <v>1.032369987030081</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038076159013012</v>
+        <v>1.052108841261283</v>
       </c>
       <c r="J2">
-        <v>1.038134962944198</v>
+        <v>1.02757102395385</v>
       </c>
       <c r="K2">
-        <v>1.045038513414612</v>
+        <v>1.03933999149295</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.05352350201329</v>
+        <v>1.043396049954042</v>
       </c>
       <c r="N2">
-        <v>1.039609233667323</v>
+        <v>1.029030292671908</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033978056411331</v>
+        <v>1.010230995463891</v>
       </c>
       <c r="D3">
-        <v>1.043025207178789</v>
+        <v>1.031905384469053</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.051666640900114</v>
+        <v>1.036528435866929</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038287010373691</v>
+        <v>1.053562445654061</v>
       </c>
       <c r="J3">
-        <v>1.038747573574859</v>
+        <v>1.030446586348546</v>
       </c>
       <c r="K3">
-        <v>1.045613312674327</v>
+        <v>1.04214567801881</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.054232292614091</v>
+        <v>1.046714325535944</v>
       </c>
       <c r="N3">
-        <v>1.040222714275347</v>
+        <v>1.031909938695036</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034605859884538</v>
+        <v>1.013190365465123</v>
       </c>
       <c r="D4">
-        <v>1.043519167376833</v>
+        <v>1.034212262632266</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.052246729558984</v>
+        <v>1.039162999370076</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038421650388943</v>
+        <v>1.054468001374245</v>
       </c>
       <c r="J4">
-        <v>1.039143405689302</v>
+        <v>1.032262574523433</v>
       </c>
       <c r="K4">
-        <v>1.045984264417345</v>
+        <v>1.043914592113439</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.05469029053768</v>
+        <v>1.048810666308747</v>
       </c>
       <c r="N4">
-        <v>1.040619108516795</v>
+        <v>1.033728505781428</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034869795255352</v>
+        <v>1.014419218563883</v>
       </c>
       <c r="D5">
-        <v>1.043726750062387</v>
+        <v>1.035170159230764</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.052490596956829</v>
+        <v>1.040257555577086</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038477822747752</v>
+        <v>1.054840503713335</v>
       </c>
       <c r="J5">
-        <v>1.039309676812489</v>
+        <v>1.033015653781106</v>
       </c>
       <c r="K5">
-        <v>1.046139976583955</v>
+        <v>1.044647424782173</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.054882679358111</v>
+        <v>1.049680178694745</v>
       </c>
       <c r="N5">
-        <v>1.040785615764049</v>
+        <v>1.034482654498027</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034914111546709</v>
+        <v>1.014624669397547</v>
       </c>
       <c r="D6">
-        <v>1.043761599490119</v>
+        <v>1.035330306544177</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.052531543222156</v>
+        <v>1.040440585797144</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038487229083293</v>
+        <v>1.054902573405213</v>
       </c>
       <c r="J6">
-        <v>1.039337586428232</v>
+        <v>1.033141500935843</v>
       </c>
       <c r="K6">
-        <v>1.046166107479666</v>
+        <v>1.04476984534614</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.054914973256422</v>
+        <v>1.049825492819331</v>
       </c>
       <c r="N6">
-        <v>1.040813565014648</v>
+        <v>1.034608680370158</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034609386575934</v>
+        <v>1.013206844704003</v>
       </c>
       <c r="D7">
-        <v>1.043521941415516</v>
+        <v>1.034225108409117</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.05224998813593</v>
+        <v>1.039177675444731</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03842240265831</v>
+        <v>1.054473010716382</v>
       </c>
       <c r="J7">
-        <v>1.039145627950249</v>
+        <v>1.032272677487481</v>
       </c>
       <c r="K7">
-        <v>1.045986345979187</v>
+        <v>1.043924426350428</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.054692861850975</v>
+        <v>1.048822330618621</v>
       </c>
       <c r="N7">
-        <v>1.040621333933608</v>
+        <v>1.033738623092844</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033335745188295</v>
+        <v>1.007149472062321</v>
       </c>
       <c r="D8">
-        <v>1.042519549435545</v>
+        <v>1.029503401611751</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.051073121094909</v>
+        <v>1.033787274235217</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038147788508788</v>
+        <v>1.052607464204614</v>
       </c>
       <c r="J8">
-        <v>1.038342114728187</v>
+        <v>1.028552296686742</v>
       </c>
       <c r="K8">
-        <v>1.045232972268988</v>
+        <v>1.040298027348469</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.05376317240364</v>
+        <v>1.044528227669414</v>
       </c>
       <c r="N8">
-        <v>1.039816679630606</v>
+        <v>1.030012958924635</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031091687440191</v>
+        <v>0.9959411811653188</v>
       </c>
       <c r="D9">
-        <v>1.040750793573975</v>
+        <v>1.020770887708834</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.048999358995015</v>
+        <v>1.023836683502332</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037650162408478</v>
+        <v>1.049042722253562</v>
       </c>
       <c r="J9">
-        <v>1.036921904101659</v>
+        <v>1.021638085447613</v>
       </c>
       <c r="K9">
-        <v>1.043897951139892</v>
+        <v>1.033535726475599</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.052120106264003</v>
+        <v>1.036554512807088</v>
       </c>
       <c r="N9">
-        <v>1.038394452142088</v>
+        <v>1.023088928712475</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029595855895641</v>
+        <v>0.9880683367155356</v>
       </c>
       <c r="D10">
-        <v>1.039570067261608</v>
+        <v>1.014644216498384</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.047616936166047</v>
+        <v>1.016867147444375</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037309220526369</v>
+        <v>1.046465953781246</v>
       </c>
       <c r="J10">
-        <v>1.035972235484293</v>
+        <v>1.01676347984841</v>
       </c>
       <c r="K10">
-        <v>1.043002958712601</v>
+        <v>1.028754004975951</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.051021535871792</v>
+        <v>1.03093839521285</v>
       </c>
       <c r="N10">
-        <v>1.037443434886357</v>
+        <v>1.018207400614196</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028948199199532</v>
+        <v>0.9845541766529421</v>
       </c>
       <c r="D11">
-        <v>1.039058444237506</v>
+        <v>1.011912187295831</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.047018365406286</v>
+        <v>1.013761847020601</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037159415722592</v>
+        <v>1.045299318280591</v>
       </c>
       <c r="J11">
-        <v>1.035560347963875</v>
+        <v>1.014583942610428</v>
       </c>
       <c r="K11">
-        <v>1.042614246539351</v>
+        <v>1.026612900148641</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.050545096972295</v>
+        <v>1.028428819315921</v>
       </c>
       <c r="N11">
-        <v>1.037030962438416</v>
+        <v>1.016024768183339</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02870763828059</v>
+        <v>0.9832321237684979</v>
       </c>
       <c r="D12">
-        <v>1.038868351492736</v>
+        <v>1.010884873856943</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.04679603470462</v>
+        <v>1.012594544600089</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037103445312742</v>
+        <v>1.044858022062462</v>
       </c>
       <c r="J12">
-        <v>1.035407253819927</v>
+        <v>1.013763482819594</v>
       </c>
       <c r="K12">
-        <v>1.042469685822518</v>
+        <v>1.02580646636684</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.050368014429351</v>
+        <v>1.027484366435958</v>
       </c>
       <c r="N12">
-        <v>1.036877650883223</v>
+        <v>1.015203143245494</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028759239063825</v>
+        <v>0.983516481847401</v>
       </c>
       <c r="D13">
-        <v>1.03890912942164</v>
+        <v>1.01110581302459</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.046843725146626</v>
+        <v>1.012845574037996</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037115465910658</v>
+        <v>1.044953046887887</v>
       </c>
       <c r="J13">
-        <v>1.035440097584511</v>
+        <v>1.013939975913981</v>
       </c>
       <c r="K13">
-        <v>1.042500702526131</v>
+        <v>1.025979961801079</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.050406004286951</v>
+        <v>1.027687520853337</v>
       </c>
       <c r="N13">
-        <v>1.03691054128972</v>
+        <v>1.01537988698032</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028928314201463</v>
+        <v>0.9844452424623708</v>
       </c>
       <c r="D14">
-        <v>1.039042732190757</v>
+        <v>1.011827528357213</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.046999987370687</v>
+        <v>1.013665644427092</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037154795843336</v>
+        <v>1.045263004782115</v>
       </c>
       <c r="J14">
-        <v>1.035547695206638</v>
+        <v>1.014516348454025</v>
       </c>
       <c r="K14">
-        <v>1.042602300685458</v>
+        <v>1.026546470360254</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.050530461552297</v>
+        <v>1.028351004789881</v>
       </c>
       <c r="N14">
-        <v>1.037018291712813</v>
+        <v>1.015957078035481</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029032487993983</v>
+        <v>0.9850152354084918</v>
       </c>
       <c r="D15">
-        <v>1.039125042250723</v>
+        <v>1.012270522968199</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.047096266393975</v>
+        <v>1.01416905849073</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037178985098143</v>
+        <v>1.045452916112196</v>
       </c>
       <c r="J15">
-        <v>1.035613976316187</v>
+        <v>1.014870011515179</v>
       </c>
       <c r="K15">
-        <v>1.042664875403979</v>
+        <v>1.026894023433499</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.050607128975844</v>
+        <v>1.028758152537461</v>
       </c>
       <c r="N15">
-        <v>1.037084666949139</v>
+        <v>1.016311243338748</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029638839785271</v>
+        <v>0.9882992658290239</v>
       </c>
       <c r="D16">
-        <v>1.039604014483895</v>
+        <v>1.01482381247464</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.04765666200036</v>
+        <v>1.017071333548951</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037319116801025</v>
+        <v>1.046542281496218</v>
       </c>
       <c r="J16">
-        <v>1.035999556937165</v>
+        <v>1.0169066333196</v>
       </c>
       <c r="K16">
-        <v>1.043028731577513</v>
+        <v>1.028894571745114</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.051053139810022</v>
+        <v>1.031103258803216</v>
       </c>
       <c r="N16">
-        <v>1.037470795138826</v>
+        <v>1.018350757379735</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030019201418757</v>
+        <v>0.9903304558007709</v>
       </c>
       <c r="D17">
-        <v>1.039904365256335</v>
+        <v>1.016403807593064</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.048008191419935</v>
+        <v>1.018867951912297</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037406435830224</v>
+        <v>1.047211777153394</v>
       </c>
       <c r="J17">
-        <v>1.036241241246196</v>
+        <v>1.018165359610532</v>
       </c>
       <c r="K17">
-        <v>1.043256655017258</v>
+        <v>1.030130204517801</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.051332710254662</v>
+        <v>1.03255305219534</v>
       </c>
       <c r="N17">
-        <v>1.037712822667297</v>
+        <v>1.019611271206378</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030241064553656</v>
+        <v>0.991505134507351</v>
       </c>
       <c r="D18">
-        <v>1.040079519906071</v>
+        <v>1.017317800805337</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.048213235164206</v>
+        <v>1.019907503005008</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037457157681087</v>
+        <v>1.047597395964613</v>
       </c>
       <c r="J18">
-        <v>1.036382146472347</v>
+        <v>1.018892954071042</v>
       </c>
       <c r="K18">
-        <v>1.043389485526624</v>
+        <v>1.030844155129355</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.051495706479148</v>
+        <v>1.033391232412246</v>
       </c>
       <c r="N18">
-        <v>1.037853927995032</v>
+        <v>1.020339898934479</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030316714923165</v>
+        <v>0.9919039871413291</v>
       </c>
       <c r="D19">
-        <v>1.040139237168693</v>
+        <v>1.017628179541676</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.048283150189304</v>
+        <v>1.020260561598186</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037474416910293</v>
+        <v>1.047728062244764</v>
       </c>
       <c r="J19">
-        <v>1.036430180445774</v>
+        <v>1.019139941543587</v>
       </c>
       <c r="K19">
-        <v>1.04343475804395</v>
+        <v>1.031086460375507</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.051551271658442</v>
+        <v>1.033675782466041</v>
       </c>
       <c r="N19">
-        <v>1.03790203018221</v>
+        <v>1.020587237157564</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029978391733591</v>
+        <v>0.9901135775107971</v>
       </c>
       <c r="D20">
-        <v>1.039872144060683</v>
+        <v>1.016235078643785</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.04797047536571</v>
+        <v>1.018676064189236</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037397089028136</v>
+        <v>1.047140454238447</v>
       </c>
       <c r="J20">
-        <v>1.036215317540734</v>
+        <v>1.018030996603468</v>
       </c>
       <c r="K20">
-        <v>1.043232212710798</v>
+        <v>1.029998337071077</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.051302722483061</v>
+        <v>1.032398278890754</v>
       </c>
       <c r="N20">
-        <v>1.0376868621472</v>
+        <v>1.019476717388431</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028878525574359</v>
+        <v>0.9841722155347812</v>
       </c>
       <c r="D21">
-        <v>1.039003390964885</v>
+        <v>1.011615351949509</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.046953971890779</v>
+        <v>1.01342454265179</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037143223160212</v>
+        <v>1.045171952152669</v>
       </c>
       <c r="J21">
-        <v>1.035516013165993</v>
+        <v>1.014346926113502</v>
       </c>
       <c r="K21">
-        <v>1.042572387404189</v>
+        <v>1.026379959442421</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.050493815072416</v>
+        <v>1.028155969485449</v>
       </c>
       <c r="N21">
-        <v>1.036986564680036</v>
+        <v>1.015787415095802</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028187040304994</v>
+        <v>0.980339289886497</v>
       </c>
       <c r="D22">
-        <v>1.038456864267983</v>
+        <v>1.008637987111532</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.046314885984294</v>
+        <v>1.010042143331505</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036981720354385</v>
+        <v>1.043888074567812</v>
       </c>
       <c r="J22">
-        <v>1.035075749961055</v>
+        <v>1.011967340016605</v>
       </c>
       <c r="K22">
-        <v>1.042156512820443</v>
+        <v>1.024040244253218</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.049984575750267</v>
+        <v>1.02541725426482</v>
       </c>
       <c r="N22">
-        <v>1.036545676250847</v>
+        <v>1.013404449713706</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028553605413886</v>
+        <v>0.9823807567710419</v>
       </c>
       <c r="D23">
-        <v>1.038746617184703</v>
+        <v>1.010223462750518</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.046653674321</v>
+        <v>1.011843107178404</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037067514774884</v>
+        <v>1.044573172273443</v>
       </c>
       <c r="J23">
-        <v>1.035309196860977</v>
+        <v>1.013234993757148</v>
       </c>
       <c r="K23">
-        <v>1.042377071882177</v>
+        <v>1.025286890674839</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.050254594205688</v>
+        <v>1.02687608059491</v>
       </c>
       <c r="N23">
-        <v>1.036779454672144</v>
+        <v>1.014673903667962</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029996831859305</v>
+        <v>0.9902116065562355</v>
       </c>
       <c r="D24">
-        <v>1.039886703539855</v>
+        <v>1.01631134340658</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.047987517619203</v>
+        <v>1.018762795854499</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037401313094115</v>
+        <v>1.047172697072021</v>
       </c>
       <c r="J24">
-        <v>1.036227031548631</v>
+        <v>1.018091729816594</v>
       </c>
       <c r="K24">
-        <v>1.043243257487308</v>
+        <v>1.030057943186376</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.051316272890227</v>
+        <v>1.032468237293807</v>
       </c>
       <c r="N24">
-        <v>1.037698592790332</v>
+        <v>1.019537536849687</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031671795967636</v>
+        <v>0.9989062018681663</v>
       </c>
       <c r="D25">
-        <v>1.041208338423153</v>
+        <v>1.023080054395165</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.049535466015949</v>
+        <v>1.026465867074817</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037780433156993</v>
+        <v>1.049998524798965</v>
       </c>
       <c r="J25">
-        <v>1.037289569968427</v>
+        <v>1.023470432837269</v>
       </c>
       <c r="K25">
-        <v>1.044243967279892</v>
+        <v>1.03533034404196</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.052545445210213</v>
+        <v>1.038666771231521</v>
       </c>
       <c r="N25">
-        <v>1.038762640136559</v>
+        <v>1.024923878245598</v>
       </c>
     </row>
   </sheetData>
